--- a/medicine/Psychotrope/SA_Brain_&_Company/SA_Brain_&_Company.xlsx
+++ b/medicine/Psychotrope/SA_Brain_&_Company/SA_Brain_&_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SA_Brain_%26_Company</t>
+          <t>SA_Brain_&amp;_Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 SA Brain &amp; Company Ltd, plus simplement connu comme Brains, est une brasserie galloise, qui produit de nombreuses bières traditionnelles au cœur de Cardiff (Royaume-Uni).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SA_Brain_%26_Company</t>
+          <t>SA_Brain_&amp;_Company</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,47 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Brains, draft, dark, lager, ale, bitter...
-Article connexe
-Équipe du pays de Galles de rugby à XV</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Brains, draft, dark, lager, ale, bitter...</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SA_Brain_&amp;_Company</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SA_Brain_%26_Company</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Article connexe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Équipe du pays de Galles de rugby à XV</t>
         </is>
       </c>
     </row>
